--- a/PCC/ODH/ValueSet-obf-datatype-YesNoVS.xlsx
+++ b/PCC/ODH/ValueSet-obf-datatype-YesNoVS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -26,10 +26,16 @@
     <t>https://profiles.ihe.net/PCC/ODH/ValueSet/obf-datatype-YesNoVS</t>
   </si>
   <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>OID:1.3.6.1.4.1.19376.1.5.3.1.3.43.48.1</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,13 +71,19 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>IHE International</t>
+    <t>IHE Patient Care Coordination Committee</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (https://www.ihe.net/ihe_domains/patient_care_coordination/)</t>
+  </si>
+  <si>
+    <t>null (pcc@ihe.net)</t>
+  </si>
+  <si>
+    <t>IHE Patient Care Coordination Committee (pcc@ihe.net)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -229,7 +241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -329,23 +341,27 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -353,6 +369,26 @@
       </c>
       <c r="B15" t="s" s="2">
         <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
